--- a/Scrum/Milestone 2/Sprint 1 Backlog.xlsx
+++ b/Scrum/Milestone 2/Sprint 1 Backlog.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shekhar\Desktop\reafavour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Desktop\SEPT\Scrum\Milestone 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBF86D6-6166-4B35-AC80-08279AD30256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="lstMetrics">OFFSET('Product Backlog'!$C$5:$C$27,0,0,COUNTA('Product Backlog'!$C$5:$C$27))</definedName>
+    <definedName name="lstMetrics">OFFSET('Product Backlog'!$C$5:$C$28,0,0,COUNTA('Product Backlog'!$C$5:$C$28))</definedName>
     <definedName name="lstYears">OFFSET('Product Backlog'!$C$4:$J$4,0,1,1,COUNTA('Product Backlog'!$C$4:$J$4)-1)</definedName>
     <definedName name="SelectedYear">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171026" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
   <si>
     <t>SPRINT #1 BACKLOG</t>
   </si>
@@ -62,22 +72,106 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>[Product backlog item 1]</t>
-  </si>
-  <si>
-    <t>[tasks that are required for PBI 1]</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>[Product backlog item 2]</t>
-  </si>
-  <si>
-    <t>[tasks that are required for PBI 2]</t>
+    <t>Product Backlog item 2</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to login to my admin account so that I can access my admin profile.</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Product Backlog item 3</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to view all current users, so that I can see all user information.</t>
+  </si>
+  <si>
+    <t>Aili</t>
+  </si>
+  <si>
+    <t>Product Backlog item 4</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to modify user accounts, so that I can edit user information.</t>
+  </si>
+  <si>
+    <t>Product Backlog item 5</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to modify users, so that I can suspend/unsuspend users from their account.</t>
+  </si>
+  <si>
+    <t>Product Backlog item 6</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to add new books, so that new items can be sold.</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Product Backlog item 7</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to edit books, so that I can update the correct data.</t>
+  </si>
+  <si>
+    <t>Product Backlog item 22</t>
+  </si>
+  <si>
+    <t>As a business user, I want to be able to login to my business account so that I can access my business profile</t>
+  </si>
+  <si>
+    <t>Product Backlog item 25</t>
+  </si>
+  <si>
+    <t>As a business user, I want to be able to see all previous transactions, so I know how often transactions are happening.</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Product Backlog item 29</t>
+  </si>
+  <si>
+    <t>As a business user, I want to be able to edit the books I am managing, so I can fix mistakes when originally created the book page. </t>
+  </si>
+  <si>
+    <t>Product Backlog item 31</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to register a user account so that I can buy, share or sell used books.</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Product Backlog item 32</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to search for books so that I can view information about the book.</t>
+  </si>
+  <si>
+    <t>Product Backlog item 42</t>
+  </si>
+  <si>
+    <t>As a Customer, I want to be able to view my transaction history, so that I can see all my recently bought books</t>
+  </si>
+  <si>
+    <t>Product Backlog item 45</t>
+  </si>
+  <si>
+    <t>As a Customer, I want to create an account so I can peruse and purchase items</t>
+  </si>
+  <si>
+    <t>Product Backlog item 51</t>
+  </si>
+  <si>
+    <t>As a customer, I want to view the details of the book I am thinking of buying, so I can be more informed on my decision.</t>
   </si>
   <si>
     <t>This worksheet is used for the Financial Report calculations and should remain hidden.</t>
@@ -96,17 +190,23 @@
   </si>
   <si>
     <t>All Metrics (works up to 25 metrics)</t>
+  </si>
+  <si>
+    <t>Add front-end functionality</t>
+  </si>
+  <si>
+    <t>Add back-end functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -215,8 +315,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +334,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -287,6 +410,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
@@ -307,7 +441,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,19 +539,826 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Key Metric Header" xfId="5"/>
-    <cellStyle name="Key Metric Percentage" xfId="7"/>
-    <cellStyle name="Key Metric Value" xfId="6"/>
+    <cellStyle name="Key Metric Header" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Key Metric Percentage" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Key Metric Value" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -707,23 +1648,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J30"/>
+  <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="11" customWidth="1"/>
     <col min="3" max="3" width="29.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="33.375" customWidth="1"/>
     <col min="6" max="6" width="26.75" customWidth="1"/>
     <col min="7" max="9" width="21.75" customWidth="1"/>
@@ -731,8 +1672,8 @@
     <col min="11" max="11" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="8.25" customHeight="1"/>
-    <row r="2" spans="2:10" ht="38.25" customHeight="1">
+    <row r="1" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B2" s="19"/>
       <c r="C2" s="32" t="s">
         <v>0</v>
@@ -742,7 +1683,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="6" customHeight="1">
+    <row r="3" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -750,7 +1691,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:10" ht="25.5" customHeight="1">
+    <row r="4" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
@@ -779,327 +1720,1062 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="4" customFormat="1">
+    <row r="5" spans="2:10" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="27" t="s">
+        <v>2.1</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>12</v>
       </c>
+      <c r="G5" s="28"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="2:10" s="4" customFormat="1">
+    <row r="6" spans="2:10" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>12</v>
       </c>
+      <c r="G6" s="28"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:10" s="4" customFormat="1">
+    <row r="7" spans="2:10" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="31"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:10" s="4" customFormat="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+    <row r="8" spans="2:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="29">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="31"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:10" s="4" customFormat="1">
-      <c r="B9" s="29">
-        <v>2</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="30">
-        <v>2.1</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="31"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="2:10" s="4" customFormat="1">
+    <row r="10" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31" t="s">
-        <v>12</v>
-      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27">
+        <v>3.3</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="31"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="2:10" s="4" customFormat="1">
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="23"/>
+    <row r="11" spans="2:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="29">
+        <v>4</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="31"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="2:10" s="4" customFormat="1">
+    <row r="12" spans="2:10" s="4" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="G12" s="23"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="2:10" s="4" customFormat="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+    <row r="13" spans="2:10" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27">
+        <v>4.3</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="23"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="2:10" s="4" customFormat="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+    <row r="14" spans="2:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="26">
+        <v>5</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="27">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="23"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="2:10" s="4" customFormat="1">
+    <row r="15" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27">
+        <v>5.2</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="G15" s="23"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="2:10" s="4" customFormat="1">
+    <row r="16" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27">
+        <v>5.3</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="G16" s="23"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="2:10" s="4" customFormat="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+    <row r="17" spans="2:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="29">
+        <v>6</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="27">
+        <v>6.1</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G17" s="23"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+    <row r="18" spans="2:10" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="27">
+        <v>6.2</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="23"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="23"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+    <row r="20" spans="2:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="29">
+        <v>7</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="27">
+        <v>7.1</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="D22" s="15">
+        <v>7.3</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+    <row r="23" spans="2:10" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="29">
+        <v>22</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="27">
+        <v>22.1</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="G23" s="23"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="13"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="15">
+        <v>22.2</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="D25" s="15">
+        <v>22.3</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="I25" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+    <row r="26" spans="2:10" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="13">
+        <v>25</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="27">
+        <v>25.1</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="I26" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="D27" s="15">
+        <v>25.2</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="G27" s="23"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="12"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="D28" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="G28" s="23"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="13"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="2:10" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="13">
+        <v>29</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="27">
+        <v>29.1</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="D30" s="15">
+        <v>29.2</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="G30" s="23"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="17"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="15">
+        <v>29.3</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="2:10" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>31</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="27">
+        <v>31.1</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15">
+        <v>31.2</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15">
+        <v>31.3</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="2:10" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="13">
+        <v>32</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="27">
+        <v>32.1</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="2:10" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="13">
+        <v>42</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="27">
+        <v>42.1</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15">
+        <v>42.2</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="13"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15">
+        <v>42.3</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="13">
+        <v>45</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="27">
+        <v>45.1</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="29"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27">
+        <v>45.2</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="29"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27">
+        <v>45.3</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:10" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="13">
+        <v>51</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="27">
+        <v>51.1</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="29"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27">
+        <v>51.2</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="29"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27">
+        <v>51.3</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:J30">
-    <cfRule type="expression" dxfId="0" priority="12">
+  <conditionalFormatting sqref="B21:D22 B19:D19 B18 B5:D7 F5:J5 B33:D34 B9:D10 B12:D13 B15:D16 D18 B24:D25 B27:D28 B30:D31 B36:D37 B39:D40 J6:J43 I6:I46 G8:H43 F6:H7">
+    <cfRule type="expression" dxfId="53" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="52" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:D43 B45:D46">
+    <cfRule type="expression" dxfId="39" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:D8 F8:F10">
+    <cfRule type="expression" dxfId="34" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:D11 F11:F13">
+    <cfRule type="expression" dxfId="33" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:D14 F14:F16">
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:D17 F17:F19">
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:D20 F20:F22">
+    <cfRule type="expression" dxfId="30" priority="29">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:D23 F23:F25">
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:D26 F26:F28">
+    <cfRule type="expression" dxfId="28" priority="27">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="27" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:D29 F29:F31">
+    <cfRule type="expression" dxfId="26" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:D32 F32:F34">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="24" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:D35 F35:F37">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:D38 F38:F40">
+    <cfRule type="expression" dxfId="22" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41 D41 F41:F43">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 D44 F44:F46">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:H46 J44:J46">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E13">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E16">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E22">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E37">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E40">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E43">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E46">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1110,29 +2786,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="34.5" customHeight="1">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="e">
         <f>SelectedYear</f>
@@ -1143,9 +2819,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="e">
         <f>C3-1</f>
@@ -1156,10 +2832,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1"/>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="e">
         <f ca="1">MATCH(C7,lstYears,0)+1</f>
@@ -1182,9 +2858,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" thickBot="1">
+    <row r="7" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="e">
         <f>D7-1</f>
@@ -1208,9 +2884,9 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="e">
-        <f>MATCH(B8,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B8,'Product Backlog'!$C$5:$C$18,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B8" t="e">
@@ -1218,23 +2894,23 @@
         <v>#REF!</v>
       </c>
       <c r="C8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A8,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A8,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A8,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A8,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A8,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H8" s="3" t="str">
@@ -1242,9 +2918,9 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="e">
-        <f>MATCH(B9,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B9,'Product Backlog'!$C$5:$C$18,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B9" t="e">
@@ -1252,23 +2928,23 @@
         <v>#REF!</v>
       </c>
       <c r="C9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A9,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A9,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A9,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A9,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A9,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -1276,9 +2952,9 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="e">
-        <f>MATCH(B10,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B10,'Product Backlog'!$C$5:$C$18,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B10" t="e">
@@ -1286,23 +2962,23 @@
         <v>#REF!</v>
       </c>
       <c r="C10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A10,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A10,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A10,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A10,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A10,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H10" s="3" t="str">
@@ -1310,9 +2986,9 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="e">
-        <f>MATCH(B11,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B11,'Product Backlog'!$C$5:$C$18,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B11" t="e">
@@ -1320,23 +2996,23 @@
         <v>#REF!</v>
       </c>
       <c r="C11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A11,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A11,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A11,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A11,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A11,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H11" s="3" t="str">
@@ -1344,9 +3020,9 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="e">
-        <f>MATCH(B12,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B12,'Product Backlog'!$C$5:$C$18,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B12" t="e">
@@ -1354,23 +3030,23 @@
         <v>#REF!</v>
       </c>
       <c r="C12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A12,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A12,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A12,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A12,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$18,$A12,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H12" s="3" t="str">
@@ -1378,10 +3054,10 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.5" thickBot="1"/>
-    <row r="14" spans="1:8" ht="18.75" thickBot="1">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1390,37 +3066,37 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1">
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>ROWS($B$15:B15)</f>
         <v>1</v>
       </c>
       <c r="B15" t="str">
         <f>IF('Product Backlog'!C5=0,"",'Product Backlog'!C5)</f>
-        <v>[Product backlog item 1]</v>
+        <v>Product Backlog item 2</v>
       </c>
       <c r="C15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,C$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A15,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,D$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A15,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,E$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A15,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,F$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A15,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1">
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A15,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>ROWS($B$15:B16)</f>
         <v>2</v>
@@ -1430,27 +3106,27 @@
         <v/>
       </c>
       <c r="C16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,C$6),NA()))</f>
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A16,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,D$6),NA()))</f>
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A16,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,E$6),NA()))</f>
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A16,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,F$6),NA()))</f>
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A16,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A16,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>ROWS($B$15:B17)</f>
         <v>3</v>
@@ -1460,27 +3136,27 @@
         <v/>
       </c>
       <c r="C17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,C$6),NA()))</f>
+        <f>IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A17,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,D$6),NA()))</f>
+        <f>IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A17,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,E$6),NA()))</f>
+        <f>IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A17,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,F$6),NA()))</f>
+        <f>IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A17,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A17,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>ROWS($B$15:B18)</f>
         <v>4</v>
@@ -1490,27 +3166,27 @@
         <v>#REF!</v>
       </c>
       <c r="C18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,C$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A18,C$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="D18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,D$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A18,D$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="E18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,E$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A18,E$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="F18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,F$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A18,F$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="G18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,G$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A18,G$6),NA()))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>ROWS($B$15:B19)</f>
         <v>5</v>
@@ -1520,87 +3196,87 @@
         <v>#REF!</v>
       </c>
       <c r="C19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,C$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A19,C$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="D19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,D$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A19,D$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="E19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,E$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A19,E$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="F19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,F$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A19,F$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="G19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,G$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A19,G$6),NA()))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>ROWS($B$15:B20)</f>
         <v>6</v>
       </c>
       <c r="B20" t="str">
         <f>IF('Product Backlog'!C8=0,"",'Product Backlog'!C8)</f>
-        <v/>
+        <v>Product Backlog item 3</v>
       </c>
       <c r="C20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,C$6),NA()))</f>
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A20,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,D$6),NA()))</f>
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A20,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,E$6),NA()))</f>
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A20,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,F$6),NA()))</f>
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A20,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A20,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>ROWS($B$15:B21)</f>
         <v>7</v>
       </c>
       <c r="B21" t="str">
         <f>IF('Product Backlog'!C9=0,"",'Product Backlog'!C9)</f>
-        <v>[Product backlog item 2]</v>
+        <v/>
       </c>
       <c r="C21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,C$6),NA()))</f>
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A21,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,D$6),NA()))</f>
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A21,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,E$6),NA()))</f>
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A21,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,F$6),NA()))</f>
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A21,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A21,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>ROWS($B$15:B22)</f>
         <v>8</v>
@@ -1610,533 +3286,533 @@
         <v/>
       </c>
       <c r="C22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,C$6),NA()))</f>
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A22,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,D$6),NA()))</f>
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A22,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,E$6),NA()))</f>
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A22,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,F$6),NA()))</f>
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A22,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A22,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>ROWS($B$15:B23)</f>
         <v>9</v>
       </c>
       <c r="B23" t="str">
-        <f>IF('Product Backlog'!C11=0,"",'Product Backlog'!C11)</f>
+        <f>IF('Product Backlog'!C12=0,"",'Product Backlog'!C12)</f>
         <v/>
       </c>
       <c r="C23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,C$6),NA()))</f>
+        <f>IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A23,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,D$6),NA()))</f>
+        <f>IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A23,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,E$6),NA()))</f>
+        <f>IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A23,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,F$6),NA()))</f>
+        <f>IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A23,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A23,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>ROWS($B$15:B24)</f>
         <v>10</v>
       </c>
       <c r="B24" t="str">
-        <f>IF('Product Backlog'!C12=0,"",'Product Backlog'!C12)</f>
+        <f>IF('Product Backlog'!C13=0,"",'Product Backlog'!C13)</f>
         <v/>
       </c>
       <c r="C24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,C$6),NA()))</f>
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A24,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,D$6),NA()))</f>
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A24,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,E$6),NA()))</f>
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A24,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,F$6),NA()))</f>
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A24,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A24,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>ROWS($B$15:B25)</f>
         <v>11</v>
       </c>
       <c r="B25" t="str">
-        <f>IF('Product Backlog'!C13=0,"",'Product Backlog'!C13)</f>
-        <v/>
+        <f>IF('Product Backlog'!C14=0,"",'Product Backlog'!C14)</f>
+        <v>Product Backlog item 5</v>
       </c>
       <c r="C25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,C$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A25,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,D$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A25,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,E$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A25,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,F$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A25,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A25,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>ROWS($B$15:B26)</f>
         <v>12</v>
       </c>
       <c r="B26" t="str">
-        <f>IF('Product Backlog'!C14=0,"",'Product Backlog'!C14)</f>
+        <f>IF('Product Backlog'!C15=0,"",'Product Backlog'!C15)</f>
         <v/>
       </c>
       <c r="C26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,C$6),NA()))</f>
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A26,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,D$6),NA()))</f>
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A26,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,E$6),NA()))</f>
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A26,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,F$6),NA()))</f>
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A26,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A26,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>ROWS($B$15:B27)</f>
         <v>13</v>
       </c>
       <c r="B27" t="str">
-        <f>IF('Product Backlog'!C15=0,"",'Product Backlog'!C15)</f>
+        <f>IF('Product Backlog'!C16=0,"",'Product Backlog'!C16)</f>
         <v/>
       </c>
       <c r="C27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,C$6),NA()))</f>
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A27,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,D$6),NA()))</f>
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A27,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,E$6),NA()))</f>
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A27,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,F$6),NA()))</f>
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A27,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A27,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>ROWS($B$15:B28)</f>
         <v>14</v>
       </c>
       <c r="B28" t="str">
-        <f>IF('Product Backlog'!C16=0,"",'Product Backlog'!C16)</f>
-        <v/>
+        <f>IF('Product Backlog'!C17=0,"",'Product Backlog'!C17)</f>
+        <v>Product Backlog item 6</v>
       </c>
       <c r="C28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,C$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A28,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,D$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A28,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,E$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A28,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,F$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A28,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A28,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>ROWS($B$15:B29)</f>
         <v>15</v>
       </c>
       <c r="B29" t="str">
-        <f>IF('Product Backlog'!C17=0,"",'Product Backlog'!C17)</f>
+        <f>IF('Product Backlog'!C18=0,"",'Product Backlog'!C18)</f>
         <v/>
       </c>
       <c r="C29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,C$6),NA()))</f>
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A29,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,D$6),NA()))</f>
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A29,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,E$6),NA()))</f>
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A29,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,F$6),NA()))</f>
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A29,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A29,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>ROWS($B$15:B30)</f>
         <v>16</v>
       </c>
       <c r="B30" t="str">
-        <f>IF('Product Backlog'!C18=0,"",'Product Backlog'!C18)</f>
+        <f>IF('Product Backlog'!C19=0,"",'Product Backlog'!C19)</f>
         <v/>
       </c>
       <c r="C30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,C$6),NA()))</f>
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A30,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,D$6),NA()))</f>
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A30,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,E$6),NA()))</f>
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A30,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,F$6),NA()))</f>
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A30,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A30,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>ROWS($B$15:B31)</f>
         <v>17</v>
       </c>
       <c r="B31" t="str">
-        <f>IF('Product Backlog'!C19=0,"",'Product Backlog'!C19)</f>
-        <v/>
+        <f>IF('Product Backlog'!C20=0,"",'Product Backlog'!C20)</f>
+        <v>Product Backlog item 7</v>
       </c>
       <c r="C31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,C$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A31,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,D$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A31,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,E$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A31,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,F$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A31,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A31,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>ROWS($B$15:B32)</f>
         <v>18</v>
       </c>
       <c r="B32" t="str">
-        <f>IF('Product Backlog'!C20=0,"",'Product Backlog'!C20)</f>
+        <f>IF('Product Backlog'!C21=0,"",'Product Backlog'!C21)</f>
         <v/>
       </c>
       <c r="C32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,C$6),NA()))</f>
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A32,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,D$6),NA()))</f>
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A32,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,E$6),NA()))</f>
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A32,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,F$6),NA()))</f>
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A32,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A32,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>ROWS($B$15:B33)</f>
         <v>19</v>
       </c>
       <c r="B33" t="str">
-        <f>IF('Product Backlog'!C21=0,"",'Product Backlog'!C21)</f>
+        <f>IF('Product Backlog'!C22=0,"",'Product Backlog'!C22)</f>
         <v/>
       </c>
       <c r="C33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,C$6),NA()))</f>
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A33,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,D$6),NA()))</f>
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A33,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,E$6),NA()))</f>
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A33,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,F$6),NA()))</f>
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A33,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A33,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>ROWS($B$15:B34)</f>
         <v>20</v>
       </c>
       <c r="B34" t="str">
-        <f>IF('Product Backlog'!C22=0,"",'Product Backlog'!C22)</f>
-        <v/>
+        <f>IF('Product Backlog'!C23=0,"",'Product Backlog'!C23)</f>
+        <v>Product Backlog item 22</v>
       </c>
       <c r="C34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,C$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A34,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,D$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A34,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,E$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A34,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,F$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A34,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A34,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>ROWS($B$15:B35)</f>
         <v>21</v>
       </c>
       <c r="B35" t="str">
-        <f>IF('Product Backlog'!C23=0,"",'Product Backlog'!C23)</f>
+        <f>IF('Product Backlog'!C24=0,"",'Product Backlog'!C24)</f>
         <v/>
       </c>
       <c r="C35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,C$6),NA()))</f>
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A35,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,D$6),NA()))</f>
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A35,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,E$6),NA()))</f>
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A35,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,F$6),NA()))</f>
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A35,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A35,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>ROWS($B$15:B36)</f>
         <v>22</v>
       </c>
       <c r="B36" t="str">
-        <f>IF('Product Backlog'!C24=0,"",'Product Backlog'!C24)</f>
+        <f>IF('Product Backlog'!C25=0,"",'Product Backlog'!C25)</f>
         <v/>
       </c>
       <c r="C36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,C$6),NA()))</f>
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A36,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,D$6),NA()))</f>
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A36,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,E$6),NA()))</f>
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A36,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,F$6),NA()))</f>
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A36,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A36,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>ROWS($B$15:B37)</f>
         <v>23</v>
       </c>
       <c r="B37" t="str">
-        <f>IF('Product Backlog'!C25=0,"",'Product Backlog'!C25)</f>
-        <v/>
+        <f>IF('Product Backlog'!C26=0,"",'Product Backlog'!C26)</f>
+        <v>Product Backlog item 25</v>
       </c>
       <c r="C37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,C$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A37,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,D$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A37,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,E$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A37,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,F$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A37,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A37,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>ROWS($B$15:B38)</f>
         <v>24</v>
       </c>
       <c r="B38" t="str">
-        <f>IF('Product Backlog'!C26=0,"",'Product Backlog'!C26)</f>
+        <f>IF('Product Backlog'!C27=0,"",'Product Backlog'!C27)</f>
         <v/>
       </c>
       <c r="C38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,C$6),NA()))</f>
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A38,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,D$6),NA()))</f>
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A38,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,E$6),NA()))</f>
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A38,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,F$6),NA()))</f>
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A38,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A38,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>ROWS($B$15:B39)</f>
         <v>25</v>
       </c>
       <c r="B39" t="str">
-        <f>IF('Product Backlog'!C27=0,"",'Product Backlog'!C27)</f>
+        <f>IF('Product Backlog'!C28=0,"",'Product Backlog'!C28)</f>
         <v/>
       </c>
       <c r="C39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,C$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A39,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,D$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A39,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,E$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A39,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,F$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A39,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,G$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$28,$A39,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2144,4 +3820,226 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD6B7AE05836784DB9DDF79838E135B0" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56f2e1d40083bc882c879fd5f0e30a2e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1977bc59-59cf-46de-bb10-abef6dc3255c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="917e586b705a352b9e3a8a8ba2891683" ns2:_="">
+    <xsd:import namespace="1977bc59-59cf-46de-bb10-abef6dc3255c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1977bc59-59cf-46de-bb10-abef6dc3255c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FB27C6B-628C-44A8-8D92-ADEF2B1AEFA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1977bc59-59cf-46de-bb10-abef6dc3255c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6EC907-729C-41B0-8D4D-418C16AE2F94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3DBFA9C-651A-4EEA-977D-C40744996BBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>